--- a/excel/M2-S4/M2-S4-MAGI.xlsx
+++ b/excel/M2-S4/M2-S4-MAGI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndyVESPUCE\bulletin-espi\backend\excel\M2-S4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5285E763-5020-45AE-8A3B-11EB6388A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC48A34-20CC-4487-91D4-CC0D6A5D3ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>UE 1 – Economie &amp; Gestion</t>
   </si>
   <si>
-    <t>Economie de l'environnement</t>
-  </si>
-  <si>
     <t>Real Estate English</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>UE SPE – MAGI</t>
   </si>
   <si>
-    <t>Gestion des centres commerciaux</t>
-  </si>
-  <si>
     <t>Nom</t>
   </si>
   <si>
@@ -106,6 +100,12 @@
   </si>
   <si>
     <t>CodeApprenant</t>
+  </si>
+  <si>
+    <t>Économie de l'Environnement</t>
+  </si>
+  <si>
+    <t>Gestion des Centres Commerciaux</t>
   </si>
 </sst>
 </file>
@@ -628,7 +628,7 @@
   <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,46 +641,46 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
@@ -694,82 +694,82 @@
     </row>
     <row r="2" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="S2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="T2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="U2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="V2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="W2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>16</v>
-      </c>
       <c r="Z2" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
